--- a/biology/Zoologie/Chondrillida/Chondrillida.xlsx
+++ b/biology/Zoologie/Chondrillida/Chondrillida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chondrillida est un ordre de spongiaires de la classe des Demospongiae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (9 juillet 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (9 juillet 2021) :
 famille Chondrillidae Gray, 1872
 famille Halisarcidae Schmidt, 1862</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) N. E. Redmond, C. C. Morrow, R. W. Thacker, M. C. Díaz, N. Boury-Esnault, P. Cárdenas, E. Hajdu, G. Lôbo-Hajdu, B. E. Picton, S. A. Pomponi, E. Kayal et A. G. Collins, « Phylogeny and Systematics of Demospongiae in Light of New Small-Subunit Ribosomal DNA (18S) Sequences », Integrative and Comparative Biology, OUP, vol. 53, no 3,‎ 22 juin 2013, p. 388-415 (ISSN 1540-7063 et 1557-7023, PMID 23793549, DOI 10.1093/ICB/ICT078, lire en ligne)</t>
         </is>
